--- a/data/input_data/1708-_additional_arlt_becker_hh.xlsx
+++ b/data/input_data/1708-_additional_arlt_becker_hh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\AAResearch\Codes\Bfly Diagram Update\Bfly_diagram\input_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798B232-5540-47D9-AC91-FA6D565C647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="13000" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,19 +162,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -182,7 +188,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -191,7 +197,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -317,98 +323,106 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="89">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,19 +747,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="A1:K12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="9" width="5.83203125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="12.83203125" style="1"/>
-    <col min="14" max="19" width="3.83203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="12.83203125" style="1"/>
+    <col min="1" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="12.875" style="1"/>
+    <col min="14" max="19" width="3.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="12.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -819,6 +833,9 @@
       </c>
       <c r="D2" s="1">
         <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
